--- a/Code/Results/Cases/Case_5_70/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_70/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012529272217926</v>
+        <v>1.037174652730592</v>
       </c>
       <c r="D2">
-        <v>1.027490542740439</v>
+        <v>1.039345150821084</v>
       </c>
       <c r="E2">
-        <v>1.023810721276363</v>
+        <v>1.044846267074777</v>
       </c>
       <c r="F2">
-        <v>1.026744852994314</v>
+        <v>1.052998016541884</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05009202058491</v>
+        <v>1.039510812905085</v>
       </c>
       <c r="J2">
-        <v>1.034341585659986</v>
+        <v>1.042278957846756</v>
       </c>
       <c r="K2">
-        <v>1.03857972841772</v>
+        <v>1.042130602937207</v>
       </c>
       <c r="L2">
-        <v>1.034948009608307</v>
+        <v>1.047616169536049</v>
       </c>
       <c r="M2">
-        <v>1.03784375144558</v>
+        <v>1.055745200838476</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016711817279176</v>
+        <v>1.038054295861997</v>
       </c>
       <c r="D3">
-        <v>1.030501928584184</v>
+        <v>1.039992116374041</v>
       </c>
       <c r="E3">
-        <v>1.027428694691159</v>
+        <v>1.045662683957636</v>
       </c>
       <c r="F3">
-        <v>1.031003983544831</v>
+        <v>1.053975934325667</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051446482208954</v>
+        <v>1.039731913920884</v>
       </c>
       <c r="J3">
-        <v>1.036757041711578</v>
+        <v>1.042803222087647</v>
       </c>
       <c r="K3">
-        <v>1.040758857624999</v>
+        <v>1.042588198571586</v>
       </c>
       <c r="L3">
-        <v>1.037722248327798</v>
+        <v>1.048243893789712</v>
       </c>
       <c r="M3">
-        <v>1.041254955164125</v>
+        <v>1.056535652856418</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019365131794047</v>
+        <v>1.038623885310595</v>
       </c>
       <c r="D4">
-        <v>1.032414290178916</v>
+        <v>1.040410971569566</v>
       </c>
       <c r="E4">
-        <v>1.029729647248756</v>
+        <v>1.04619175919699</v>
       </c>
       <c r="F4">
-        <v>1.033713392050776</v>
+        <v>1.054609856701186</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052295180096066</v>
+        <v>1.039873779529956</v>
       </c>
       <c r="J4">
-        <v>1.03828612041967</v>
+        <v>1.043142209178984</v>
       </c>
       <c r="K4">
-        <v>1.042136631268569</v>
+        <v>1.042883832314429</v>
       </c>
       <c r="L4">
-        <v>1.039482028835861</v>
+        <v>1.048650220296053</v>
       </c>
       <c r="M4">
-        <v>1.043421265426313</v>
+        <v>1.057047652390873</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020468293956709</v>
+        <v>1.038863435537514</v>
       </c>
       <c r="D5">
-        <v>1.033209823402685</v>
+        <v>1.04058711067115</v>
       </c>
       <c r="E5">
-        <v>1.030687668105156</v>
+        <v>1.046414372159535</v>
       </c>
       <c r="F5">
-        <v>1.034841662095469</v>
+        <v>1.054876630050586</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0526454737057</v>
+        <v>1.039933131484264</v>
       </c>
       <c r="J5">
-        <v>1.038921056397327</v>
+        <v>1.043284659140218</v>
       </c>
       <c r="K5">
-        <v>1.042708320599885</v>
+        <v>1.043008005224954</v>
       </c>
       <c r="L5">
-        <v>1.040213627627818</v>
+        <v>1.048821073916485</v>
       </c>
       <c r="M5">
-        <v>1.044322478593398</v>
+        <v>1.057263021126956</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020652810660143</v>
+        <v>1.038903662597334</v>
       </c>
       <c r="D6">
-        <v>1.033342909868834</v>
+        <v>1.040616688227943</v>
       </c>
       <c r="E6">
-        <v>1.030847987300172</v>
+        <v>1.046451760936924</v>
       </c>
       <c r="F6">
-        <v>1.03503048291128</v>
+        <v>1.054921438397864</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052703912372612</v>
+        <v>1.039943080009421</v>
       </c>
       <c r="J6">
-        <v>1.039027208634798</v>
+        <v>1.043308573552787</v>
       </c>
       <c r="K6">
-        <v>1.042803873985031</v>
+        <v>1.043028847831878</v>
       </c>
       <c r="L6">
-        <v>1.040335991645531</v>
+        <v>1.048849762946944</v>
       </c>
       <c r="M6">
-        <v>1.04447324753035</v>
+        <v>1.057299189724819</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019379920061929</v>
+        <v>1.038627085821487</v>
       </c>
       <c r="D7">
-        <v>1.032424952915354</v>
+        <v>1.040413324944993</v>
       </c>
       <c r="E7">
-        <v>1.029742484516923</v>
+        <v>1.046194733018695</v>
       </c>
       <c r="F7">
-        <v>1.033728509865507</v>
+        <v>1.05461342027138</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052299886092461</v>
+        <v>1.039874573727554</v>
       </c>
       <c r="J7">
-        <v>1.038294635174152</v>
+        <v>1.043144112840303</v>
       </c>
       <c r="K7">
-        <v>1.042144299527364</v>
+        <v>1.042885491958488</v>
       </c>
       <c r="L7">
-        <v>1.039491836446448</v>
+        <v>1.048652503118592</v>
       </c>
       <c r="M7">
-        <v>1.043433344430603</v>
+        <v>1.057050529672424</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013954027405671</v>
+        <v>1.037471848323503</v>
       </c>
       <c r="D8">
-        <v>1.0285159020811</v>
+        <v>1.039563748299359</v>
       </c>
       <c r="E8">
-        <v>1.025041926938895</v>
+        <v>1.04512201263919</v>
       </c>
       <c r="F8">
-        <v>1.028194112418639</v>
+        <v>1.053328270601946</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050555594910496</v>
+        <v>1.039585783393737</v>
       </c>
       <c r="J8">
-        <v>1.035165053554789</v>
+        <v>1.042456185870477</v>
       </c>
       <c r="K8">
-        <v>1.039322979242645</v>
+        <v>1.042285344366882</v>
       </c>
       <c r="L8">
-        <v>1.035893045718261</v>
+        <v>1.047828280727889</v>
       </c>
       <c r="M8">
-        <v>1.039005253487836</v>
+        <v>1.056012228432013</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00396682049963</v>
+        <v>1.035439304997625</v>
       </c>
       <c r="D9">
-        <v>1.021338811147743</v>
+        <v>1.038068478633945</v>
       </c>
       <c r="E9">
-        <v>1.016437286774947</v>
+        <v>1.043237928755869</v>
       </c>
       <c r="F9">
-        <v>1.018067679934633</v>
+        <v>1.05107250361547</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047262940136183</v>
+        <v>1.039067726477224</v>
       </c>
       <c r="J9">
-        <v>1.029380273581145</v>
+        <v>1.041242127897351</v>
       </c>
       <c r="K9">
-        <v>1.034094914464294</v>
+        <v>1.041224323500111</v>
       </c>
       <c r="L9">
-        <v>1.029269193128813</v>
+        <v>1.046377074858833</v>
       </c>
       <c r="M9">
-        <v>1.030874268444978</v>
+        <v>1.054186684373468</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9969931310329521</v>
+        <v>1.034086459169527</v>
       </c>
       <c r="D10">
-        <v>1.016342825033086</v>
+        <v>1.037072929043329</v>
       </c>
       <c r="E10">
-        <v>1.010463327429978</v>
+        <v>1.041986123100413</v>
       </c>
       <c r="F10">
-        <v>1.01103899827669</v>
+        <v>1.049574687293531</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044910786805094</v>
+        <v>1.038716230146761</v>
       </c>
       <c r="J10">
-        <v>1.025326558069942</v>
+        <v>1.04043158180416</v>
       </c>
       <c r="K10">
-        <v>1.030423143736166</v>
+        <v>1.040514698543595</v>
       </c>
       <c r="L10">
-        <v>1.024646198670148</v>
+        <v>1.045410469421601</v>
       </c>
       <c r="M10">
-        <v>1.025211760179591</v>
+        <v>1.052972476047895</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9938916059640983</v>
+        <v>1.033501195698953</v>
       </c>
       <c r="D11">
-        <v>1.014125312509684</v>
+        <v>1.036642171859087</v>
       </c>
       <c r="E11">
-        <v>1.007815100455285</v>
+        <v>1.041445104562645</v>
       </c>
       <c r="F11">
-        <v>1.007923346536751</v>
+        <v>1.048927565109513</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043852665703181</v>
+        <v>1.038562584177112</v>
       </c>
       <c r="J11">
-        <v>1.023520727834889</v>
+        <v>1.040080341447529</v>
       </c>
       <c r="K11">
-        <v>1.028785673477037</v>
+        <v>1.040206896407881</v>
       </c>
       <c r="L11">
-        <v>1.022591125157208</v>
+        <v>1.044992138893611</v>
       </c>
       <c r="M11">
-        <v>1.022697371216015</v>
+        <v>1.052447396459219</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9927266206120609</v>
+        <v>1.03328388331554</v>
       </c>
       <c r="D12">
-        <v>1.013293111028119</v>
+        <v>1.036482219428598</v>
       </c>
       <c r="E12">
-        <v>1.0068217317405</v>
+        <v>1.041244301190728</v>
       </c>
       <c r="F12">
-        <v>1.006754635921286</v>
+        <v>1.04868741329845</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043453463085533</v>
+        <v>1.038505296681528</v>
       </c>
       <c r="J12">
-        <v>1.022842024945161</v>
+        <v>1.039949835861339</v>
       </c>
       <c r="K12">
-        <v>1.028169991684304</v>
+        <v>1.040092486456272</v>
       </c>
       <c r="L12">
-        <v>1.021819394822656</v>
+        <v>1.044836785959507</v>
       </c>
       <c r="M12">
-        <v>1.02175356191047</v>
+        <v>1.052252462119796</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9929771102756528</v>
+        <v>1.033330493895324</v>
       </c>
       <c r="D13">
-        <v>1.013472012802068</v>
+        <v>1.036516527482143</v>
       </c>
       <c r="E13">
-        <v>1.00703525940778</v>
+        <v>1.041287367157046</v>
       </c>
       <c r="F13">
-        <v>1.007005854656209</v>
+        <v>1.048738916779681</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043539376206018</v>
+        <v>1.038517594832068</v>
       </c>
       <c r="J13">
-        <v>1.02298797394796</v>
+        <v>1.039977831512886</v>
       </c>
       <c r="K13">
-        <v>1.028302399880924</v>
+        <v>1.040117031315896</v>
       </c>
       <c r="L13">
-        <v>1.02198531936614</v>
+        <v>1.04487010814925</v>
       </c>
       <c r="M13">
-        <v>1.021956465894817</v>
+        <v>1.052294271487683</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9937955757536083</v>
+        <v>1.033483230939566</v>
       </c>
       <c r="D14">
-        <v>1.014056698491431</v>
+        <v>1.036628949113091</v>
       </c>
       <c r="E14">
-        <v>1.00773318894317</v>
+        <v>1.041428502922486</v>
       </c>
       <c r="F14">
-        <v>1.007826976939423</v>
+        <v>1.048907709626312</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04381979464322</v>
+        <v>1.038557853188385</v>
       </c>
       <c r="J14">
-        <v>1.023464790020777</v>
+        <v>1.040069554610159</v>
       </c>
       <c r="K14">
-        <v>1.028734934891761</v>
+        <v>1.040197440841462</v>
       </c>
       <c r="L14">
-        <v>1.022527507004597</v>
+        <v>1.044979296678231</v>
       </c>
       <c r="M14">
-        <v>1.02261955944503</v>
+        <v>1.052431281004755</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9942981246888111</v>
+        <v>1.033577347981654</v>
       </c>
       <c r="D15">
-        <v>1.014415802295236</v>
+        <v>1.036698222457359</v>
       </c>
       <c r="E15">
-        <v>1.008161906706273</v>
+        <v>1.041515481910428</v>
       </c>
       <c r="F15">
-        <v>1.008331366597717</v>
+        <v>1.049011737426377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043991745493565</v>
+        <v>1.038582629016477</v>
       </c>
       <c r="J15">
-        <v>1.02375750975022</v>
+        <v>1.040126063064768</v>
       </c>
       <c r="K15">
-        <v>1.029000436995577</v>
+        <v>1.040246973429563</v>
       </c>
       <c r="L15">
-        <v>1.022860443933232</v>
+        <v>1.045046575829429</v>
       </c>
       <c r="M15">
-        <v>1.023026793185046</v>
+        <v>1.052515710858157</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9971971903691598</v>
+        <v>1.034125312402989</v>
       </c>
       <c r="D16">
-        <v>1.016488820419136</v>
+        <v>1.037101523901912</v>
       </c>
       <c r="E16">
-        <v>1.010637747528488</v>
+        <v>1.042022050372244</v>
       </c>
       <c r="F16">
-        <v>1.011244204795872</v>
+        <v>1.049617665175447</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044980157847068</v>
+        <v>1.038726396720382</v>
       </c>
       <c r="J16">
-        <v>1.025445311344891</v>
+        <v>1.04045488690295</v>
       </c>
       <c r="K16">
-        <v>1.030530789361971</v>
+        <v>1.040535115285695</v>
       </c>
       <c r="L16">
-        <v>1.024781432653352</v>
+        <v>1.045438237294214</v>
       </c>
       <c r="M16">
-        <v>1.02537727632539</v>
+        <v>1.053007338305485</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9989933391013799</v>
+        <v>1.034469178167397</v>
       </c>
       <c r="D17">
-        <v>1.017774398181488</v>
+        <v>1.037354591632898</v>
       </c>
       <c r="E17">
-        <v>1.012174002260993</v>
+        <v>1.042340081963367</v>
       </c>
       <c r="F17">
-        <v>1.013051631197308</v>
+        <v>1.049998134819793</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045589406095837</v>
+        <v>1.038816191806088</v>
       </c>
       <c r="J17">
-        <v>1.026490256842745</v>
+        <v>1.040661078264535</v>
       </c>
       <c r="K17">
-        <v>1.031477793541104</v>
+        <v>1.04071571795983</v>
       </c>
       <c r="L17">
-        <v>1.025971891821336</v>
+        <v>1.045683974859595</v>
       </c>
       <c r="M17">
-        <v>1.026834623621886</v>
+        <v>1.053315906385237</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000033148276014</v>
+        <v>1.034669800081639</v>
       </c>
       <c r="D18">
-        <v>1.018519049118473</v>
+        <v>1.037502232758793</v>
       </c>
       <c r="E18">
-        <v>1.013064176265096</v>
+        <v>1.042525682874575</v>
       </c>
       <c r="F18">
-        <v>1.014098948128762</v>
+        <v>1.050220195373043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045940962563178</v>
+        <v>1.038868428222873</v>
       </c>
       <c r="J18">
-        <v>1.027094903367566</v>
+        <v>1.040781320214502</v>
       </c>
       <c r="K18">
-        <v>1.03202559695725</v>
+        <v>1.040821009249829</v>
       </c>
       <c r="L18">
-        <v>1.026661151970839</v>
+        <v>1.045827330184911</v>
       </c>
       <c r="M18">
-        <v>1.027678673656862</v>
+        <v>1.053495954506313</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000386382932148</v>
+        <v>1.034738215553882</v>
       </c>
       <c r="D19">
-        <v>1.018772083966752</v>
+        <v>1.037552579778686</v>
       </c>
       <c r="E19">
-        <v>1.013366715949104</v>
+        <v>1.042588984643961</v>
       </c>
       <c r="F19">
-        <v>1.014454898485164</v>
+        <v>1.050295935821921</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046060194721469</v>
+        <v>1.038886215802909</v>
       </c>
       <c r="J19">
-        <v>1.02730025920833</v>
+        <v>1.040822315172506</v>
       </c>
       <c r="K19">
-        <v>1.032211617903054</v>
+        <v>1.040856902142757</v>
       </c>
       <c r="L19">
-        <v>1.026895315469033</v>
+        <v>1.045876214131201</v>
       </c>
       <c r="M19">
-        <v>1.027965469541475</v>
+        <v>1.053557357345558</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9988014462127213</v>
+        <v>1.034432279358409</v>
       </c>
       <c r="D20">
-        <v>1.017637008835779</v>
+        <v>1.037327436642795</v>
       </c>
       <c r="E20">
-        <v>1.012009789931399</v>
+        <v>1.042305949987785</v>
       </c>
       <c r="F20">
-        <v>1.012858431694337</v>
+        <v>1.049957299634496</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045524434895768</v>
+        <v>1.038806572071416</v>
       </c>
       <c r="J20">
-        <v>1.026378648409494</v>
+        <v>1.04063895856261</v>
       </c>
       <c r="K20">
-        <v>1.03137666360265</v>
+        <v>1.040696346289629</v>
       </c>
       <c r="L20">
-        <v>1.02584469850204</v>
+        <v>1.045657607388401</v>
       </c>
       <c r="M20">
-        <v>1.026678887513314</v>
+        <v>1.053282793157513</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9935549206574003</v>
+        <v>1.033438251453894</v>
       </c>
       <c r="D21">
-        <v>1.013884761396827</v>
+        <v>1.036595842353146</v>
       </c>
       <c r="E21">
-        <v>1.007527937721735</v>
+        <v>1.041386937666245</v>
       </c>
       <c r="F21">
-        <v>1.007585496899707</v>
+        <v>1.048857998305008</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043737390514572</v>
+        <v>1.03854600407812</v>
       </c>
       <c r="J21">
-        <v>1.023324601544177</v>
+        <v>1.040042545519859</v>
       </c>
       <c r="K21">
-        <v>1.028607772388599</v>
+        <v>1.040173764399655</v>
       </c>
       <c r="L21">
-        <v>1.022368080876836</v>
+        <v>1.044947142439367</v>
       </c>
       <c r="M21">
-        <v>1.022424570808782</v>
+        <v>1.052390932246224</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.990181001501457</v>
+        <v>1.032813733190112</v>
       </c>
       <c r="D22">
-        <v>1.011476086522468</v>
+        <v>1.036136149840036</v>
       </c>
       <c r="E22">
-        <v>1.00465365009156</v>
+        <v>1.040810015690758</v>
       </c>
       <c r="F22">
-        <v>1.004203816436776</v>
+        <v>1.048168087007256</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042577993427232</v>
+        <v>1.038380922127256</v>
       </c>
       <c r="J22">
-        <v>1.021358292816703</v>
+        <v>1.039667330242527</v>
       </c>
       <c r="K22">
-        <v>1.026823577238503</v>
+        <v>1.039844742583084</v>
       </c>
       <c r="L22">
-        <v>1.020133477557679</v>
+        <v>1.044500640210579</v>
       </c>
       <c r="M22">
-        <v>1.019692452379856</v>
+        <v>1.051830783950876</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9919769349952499</v>
+        <v>1.033144757498677</v>
       </c>
       <c r="D23">
-        <v>1.012757792274348</v>
+        <v>1.036379813551689</v>
       </c>
       <c r="E23">
-        <v>1.006182870591851</v>
+        <v>1.04111576736033</v>
       </c>
       <c r="F23">
-        <v>1.006003002266993</v>
+        <v>1.048533701808992</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04319608222683</v>
+        <v>1.038468553694209</v>
       </c>
       <c r="J23">
-        <v>1.022405161320027</v>
+        <v>1.039866260094643</v>
       </c>
       <c r="K23">
-        <v>1.027773622864085</v>
+        <v>1.040019205935007</v>
       </c>
       <c r="L23">
-        <v>1.021322833663083</v>
+        <v>1.044737320579428</v>
       </c>
       <c r="M23">
-        <v>1.021146391023161</v>
+        <v>1.052127671833457</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9988881785738537</v>
+        <v>1.034448952184954</v>
       </c>
       <c r="D24">
-        <v>1.017699105224941</v>
+        <v>1.037339706718344</v>
       </c>
       <c r="E24">
-        <v>1.012084008605949</v>
+        <v>1.042321372454288</v>
       </c>
       <c r="F24">
-        <v>1.012945751590367</v>
+        <v>1.049975750867528</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04555380433571</v>
+        <v>1.03881091924665</v>
       </c>
       <c r="J24">
-        <v>1.026429094427212</v>
+        <v>1.040648953584172</v>
       </c>
       <c r="K24">
-        <v>1.031422373963456</v>
+        <v>1.040705099671844</v>
       </c>
       <c r="L24">
-        <v>1.025902187466184</v>
+        <v>1.045669521649638</v>
       </c>
       <c r="M24">
-        <v>1.02674927645299</v>
+        <v>1.053297755397285</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006602131483917</v>
+        <v>1.035964387020788</v>
       </c>
       <c r="D25">
-        <v>1.023230185881209</v>
+        <v>1.038454819786583</v>
       </c>
       <c r="E25">
-        <v>1.018702024323142</v>
+        <v>1.043724267111976</v>
       </c>
       <c r="F25">
-        <v>1.020732542488098</v>
+        <v>1.051654617580936</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04814109540479</v>
+        <v>1.039202739219382</v>
       </c>
       <c r="J25">
-        <v>1.030909332229256</v>
+        <v>1.041556202679001</v>
       </c>
       <c r="K25">
-        <v>1.03547827692065</v>
+        <v>1.041499029033674</v>
       </c>
       <c r="L25">
-        <v>1.031016790372241</v>
+        <v>1.046752099165962</v>
       </c>
       <c r="M25">
-        <v>1.033017317214111</v>
+        <v>1.054658139976882</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_70/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_70/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037174652730592</v>
+        <v>1.012529272217926</v>
       </c>
       <c r="D2">
-        <v>1.039345150821084</v>
+        <v>1.027490542740438</v>
       </c>
       <c r="E2">
-        <v>1.044846267074777</v>
+        <v>1.023810721276363</v>
       </c>
       <c r="F2">
-        <v>1.052998016541884</v>
+        <v>1.026744852994314</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039510812905085</v>
+        <v>1.050092020584911</v>
       </c>
       <c r="J2">
-        <v>1.042278957846756</v>
+        <v>1.034341585659986</v>
       </c>
       <c r="K2">
-        <v>1.042130602937207</v>
+        <v>1.03857972841772</v>
       </c>
       <c r="L2">
-        <v>1.047616169536049</v>
+        <v>1.034948009608307</v>
       </c>
       <c r="M2">
-        <v>1.055745200838476</v>
+        <v>1.03784375144558</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038054295861997</v>
+        <v>1.016711817279176</v>
       </c>
       <c r="D3">
-        <v>1.039992116374041</v>
+        <v>1.030501928584184</v>
       </c>
       <c r="E3">
-        <v>1.045662683957636</v>
+        <v>1.027428694691159</v>
       </c>
       <c r="F3">
-        <v>1.053975934325667</v>
+        <v>1.031003983544831</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039731913920884</v>
+        <v>1.051446482208954</v>
       </c>
       <c r="J3">
-        <v>1.042803222087647</v>
+        <v>1.036757041711578</v>
       </c>
       <c r="K3">
-        <v>1.042588198571586</v>
+        <v>1.040758857624999</v>
       </c>
       <c r="L3">
-        <v>1.048243893789712</v>
+        <v>1.037722248327798</v>
       </c>
       <c r="M3">
-        <v>1.056535652856418</v>
+        <v>1.041254955164125</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038623885310595</v>
+        <v>1.019365131794046</v>
       </c>
       <c r="D4">
-        <v>1.040410971569566</v>
+        <v>1.032414290178916</v>
       </c>
       <c r="E4">
-        <v>1.04619175919699</v>
+        <v>1.029729647248756</v>
       </c>
       <c r="F4">
-        <v>1.054609856701186</v>
+        <v>1.033713392050776</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039873779529956</v>
+        <v>1.052295180096066</v>
       </c>
       <c r="J4">
-        <v>1.043142209178984</v>
+        <v>1.038286120419669</v>
       </c>
       <c r="K4">
-        <v>1.042883832314429</v>
+        <v>1.042136631268569</v>
       </c>
       <c r="L4">
-        <v>1.048650220296053</v>
+        <v>1.039482028835861</v>
       </c>
       <c r="M4">
-        <v>1.057047652390873</v>
+        <v>1.043421265426313</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038863435537514</v>
+        <v>1.020468293956709</v>
       </c>
       <c r="D5">
-        <v>1.04058711067115</v>
+        <v>1.033209823402685</v>
       </c>
       <c r="E5">
-        <v>1.046414372159535</v>
+        <v>1.030687668105155</v>
       </c>
       <c r="F5">
-        <v>1.054876630050586</v>
+        <v>1.034841662095469</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039933131484264</v>
+        <v>1.0526454737057</v>
       </c>
       <c r="J5">
-        <v>1.043284659140218</v>
+        <v>1.038921056397327</v>
       </c>
       <c r="K5">
-        <v>1.043008005224954</v>
+        <v>1.042708320599885</v>
       </c>
       <c r="L5">
-        <v>1.048821073916485</v>
+        <v>1.040213627627818</v>
       </c>
       <c r="M5">
-        <v>1.057263021126956</v>
+        <v>1.044322478593399</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038903662597334</v>
+        <v>1.020652810660142</v>
       </c>
       <c r="D6">
-        <v>1.040616688227943</v>
+        <v>1.033342909868833</v>
       </c>
       <c r="E6">
-        <v>1.046451760936924</v>
+        <v>1.030847987300171</v>
       </c>
       <c r="F6">
-        <v>1.054921438397864</v>
+        <v>1.035030482911279</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039943080009421</v>
+        <v>1.052703912372611</v>
       </c>
       <c r="J6">
-        <v>1.043308573552787</v>
+        <v>1.039027208634797</v>
       </c>
       <c r="K6">
-        <v>1.043028847831878</v>
+        <v>1.04280387398503</v>
       </c>
       <c r="L6">
-        <v>1.048849762946944</v>
+        <v>1.040335991645531</v>
       </c>
       <c r="M6">
-        <v>1.057299189724819</v>
+        <v>1.04447324753035</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038627085821487</v>
+        <v>1.019379920061929</v>
       </c>
       <c r="D7">
-        <v>1.040413324944993</v>
+        <v>1.032424952915355</v>
       </c>
       <c r="E7">
-        <v>1.046194733018695</v>
+        <v>1.029742484516923</v>
       </c>
       <c r="F7">
-        <v>1.05461342027138</v>
+        <v>1.033728509865508</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039874573727554</v>
+        <v>1.052299886092462</v>
       </c>
       <c r="J7">
-        <v>1.043144112840303</v>
+        <v>1.038294635174153</v>
       </c>
       <c r="K7">
-        <v>1.042885491958488</v>
+        <v>1.042144299527365</v>
       </c>
       <c r="L7">
-        <v>1.048652503118592</v>
+        <v>1.039491836446449</v>
       </c>
       <c r="M7">
-        <v>1.057050529672424</v>
+        <v>1.043433344430603</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037471848323503</v>
+        <v>1.013954027405671</v>
       </c>
       <c r="D8">
-        <v>1.039563748299359</v>
+        <v>1.0285159020811</v>
       </c>
       <c r="E8">
-        <v>1.04512201263919</v>
+        <v>1.025041926938896</v>
       </c>
       <c r="F8">
-        <v>1.053328270601946</v>
+        <v>1.028194112418639</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039585783393737</v>
+        <v>1.050555594910496</v>
       </c>
       <c r="J8">
-        <v>1.042456185870477</v>
+        <v>1.03516505355479</v>
       </c>
       <c r="K8">
-        <v>1.042285344366882</v>
+        <v>1.039322979242645</v>
       </c>
       <c r="L8">
-        <v>1.047828280727889</v>
+        <v>1.035893045718261</v>
       </c>
       <c r="M8">
-        <v>1.056012228432013</v>
+        <v>1.039005253487836</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035439304997625</v>
+        <v>1.003966820499629</v>
       </c>
       <c r="D9">
-        <v>1.038068478633945</v>
+        <v>1.021338811147742</v>
       </c>
       <c r="E9">
-        <v>1.043237928755869</v>
+        <v>1.016437286774945</v>
       </c>
       <c r="F9">
-        <v>1.05107250361547</v>
+        <v>1.018067679934631</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039067726477224</v>
+        <v>1.047262940136182</v>
       </c>
       <c r="J9">
-        <v>1.041242127897351</v>
+        <v>1.029380273581144</v>
       </c>
       <c r="K9">
-        <v>1.041224323500111</v>
+        <v>1.034094914464293</v>
       </c>
       <c r="L9">
-        <v>1.046377074858833</v>
+        <v>1.029269193128812</v>
       </c>
       <c r="M9">
-        <v>1.054186684373468</v>
+        <v>1.030874268444977</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034086459169527</v>
+        <v>0.9969931310329513</v>
       </c>
       <c r="D10">
-        <v>1.037072929043329</v>
+        <v>1.016342825033086</v>
       </c>
       <c r="E10">
-        <v>1.041986123100413</v>
+        <v>1.010463327429977</v>
       </c>
       <c r="F10">
-        <v>1.049574687293531</v>
+        <v>1.01103899827669</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038716230146761</v>
+        <v>1.044910786805094</v>
       </c>
       <c r="J10">
-        <v>1.04043158180416</v>
+        <v>1.025326558069942</v>
       </c>
       <c r="K10">
-        <v>1.040514698543595</v>
+        <v>1.030423143736166</v>
       </c>
       <c r="L10">
-        <v>1.045410469421601</v>
+        <v>1.024646198670148</v>
       </c>
       <c r="M10">
-        <v>1.052972476047895</v>
+        <v>1.02521176017959</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033501195698953</v>
+        <v>0.993891605964098</v>
       </c>
       <c r="D11">
-        <v>1.036642171859087</v>
+        <v>1.014125312509683</v>
       </c>
       <c r="E11">
-        <v>1.041445104562645</v>
+        <v>1.007815100455284</v>
       </c>
       <c r="F11">
-        <v>1.048927565109513</v>
+        <v>1.00792334653675</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038562584177112</v>
+        <v>1.043852665703181</v>
       </c>
       <c r="J11">
-        <v>1.040080341447529</v>
+        <v>1.023520727834889</v>
       </c>
       <c r="K11">
-        <v>1.040206896407881</v>
+        <v>1.028785673477037</v>
       </c>
       <c r="L11">
-        <v>1.044992138893611</v>
+        <v>1.022591125157207</v>
       </c>
       <c r="M11">
-        <v>1.052447396459219</v>
+        <v>1.022697371216013</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03328388331554</v>
+        <v>0.9927266206120604</v>
       </c>
       <c r="D12">
-        <v>1.036482219428598</v>
+        <v>1.013293111028119</v>
       </c>
       <c r="E12">
-        <v>1.041244301190728</v>
+        <v>1.006821731740499</v>
       </c>
       <c r="F12">
-        <v>1.04868741329845</v>
+        <v>1.006754635921285</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038505296681528</v>
+        <v>1.043453463085532</v>
       </c>
       <c r="J12">
-        <v>1.039949835861339</v>
+        <v>1.022842024945161</v>
       </c>
       <c r="K12">
-        <v>1.040092486456272</v>
+        <v>1.028169991684303</v>
       </c>
       <c r="L12">
-        <v>1.044836785959507</v>
+        <v>1.021819394822655</v>
       </c>
       <c r="M12">
-        <v>1.052252462119796</v>
+        <v>1.021753561910469</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033330493895324</v>
+        <v>0.9929771102756531</v>
       </c>
       <c r="D13">
-        <v>1.036516527482143</v>
+        <v>1.013472012802069</v>
       </c>
       <c r="E13">
-        <v>1.041287367157046</v>
+        <v>1.00703525940778</v>
       </c>
       <c r="F13">
-        <v>1.048738916779681</v>
+        <v>1.00700585465621</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038517594832068</v>
+        <v>1.043539376206018</v>
       </c>
       <c r="J13">
-        <v>1.039977831512886</v>
+        <v>1.022987973947961</v>
       </c>
       <c r="K13">
-        <v>1.040117031315896</v>
+        <v>1.028302399880924</v>
       </c>
       <c r="L13">
-        <v>1.04487010814925</v>
+        <v>1.02198531936614</v>
       </c>
       <c r="M13">
-        <v>1.052294271487683</v>
+        <v>1.021956465894817</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033483230939566</v>
+        <v>0.9937955757536076</v>
       </c>
       <c r="D14">
-        <v>1.036628949113091</v>
+        <v>1.01405669849143</v>
       </c>
       <c r="E14">
-        <v>1.041428502922486</v>
+        <v>1.007733188943169</v>
       </c>
       <c r="F14">
-        <v>1.048907709626312</v>
+        <v>1.007826976939422</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038557853188385</v>
+        <v>1.043819794643219</v>
       </c>
       <c r="J14">
-        <v>1.040069554610159</v>
+        <v>1.023464790020776</v>
       </c>
       <c r="K14">
-        <v>1.040197440841462</v>
+        <v>1.02873493489176</v>
       </c>
       <c r="L14">
-        <v>1.044979296678231</v>
+        <v>1.022527507004596</v>
       </c>
       <c r="M14">
-        <v>1.052431281004755</v>
+        <v>1.022619559445029</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033577347981654</v>
+        <v>0.9942981246888108</v>
       </c>
       <c r="D15">
-        <v>1.036698222457359</v>
+        <v>1.014415802295236</v>
       </c>
       <c r="E15">
-        <v>1.041515481910428</v>
+        <v>1.008161906706273</v>
       </c>
       <c r="F15">
-        <v>1.049011737426377</v>
+        <v>1.008331366597716</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038582629016477</v>
+        <v>1.043991745493565</v>
       </c>
       <c r="J15">
-        <v>1.040126063064768</v>
+        <v>1.02375750975022</v>
       </c>
       <c r="K15">
-        <v>1.040246973429563</v>
+        <v>1.029000436995577</v>
       </c>
       <c r="L15">
-        <v>1.045046575829429</v>
+        <v>1.022860443933232</v>
       </c>
       <c r="M15">
-        <v>1.052515710858157</v>
+        <v>1.023026793185045</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034125312402989</v>
+        <v>0.9971971903691587</v>
       </c>
       <c r="D16">
-        <v>1.037101523901912</v>
+        <v>1.016488820419135</v>
       </c>
       <c r="E16">
-        <v>1.042022050372244</v>
+        <v>1.010637747528487</v>
       </c>
       <c r="F16">
-        <v>1.049617665175447</v>
+        <v>1.011244204795871</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038726396720382</v>
+        <v>1.044980157847067</v>
       </c>
       <c r="J16">
-        <v>1.04045488690295</v>
+        <v>1.02544531134489</v>
       </c>
       <c r="K16">
-        <v>1.040535115285695</v>
+        <v>1.03053078936197</v>
       </c>
       <c r="L16">
-        <v>1.045438237294214</v>
+        <v>1.024781432653351</v>
       </c>
       <c r="M16">
-        <v>1.053007338305485</v>
+        <v>1.025377276325388</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034469178167397</v>
+        <v>0.9989933391013789</v>
       </c>
       <c r="D17">
-        <v>1.037354591632898</v>
+        <v>1.017774398181487</v>
       </c>
       <c r="E17">
-        <v>1.042340081963367</v>
+        <v>1.012174002260992</v>
       </c>
       <c r="F17">
-        <v>1.049998134819793</v>
+        <v>1.013051631197307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038816191806088</v>
+        <v>1.045589406095836</v>
       </c>
       <c r="J17">
-        <v>1.040661078264535</v>
+        <v>1.026490256842744</v>
       </c>
       <c r="K17">
-        <v>1.04071571795983</v>
+        <v>1.031477793541103</v>
       </c>
       <c r="L17">
-        <v>1.045683974859595</v>
+        <v>1.025971891821335</v>
       </c>
       <c r="M17">
-        <v>1.053315906385237</v>
+        <v>1.026834623621885</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034669800081639</v>
+        <v>1.000033148276015</v>
       </c>
       <c r="D18">
-        <v>1.037502232758793</v>
+        <v>1.018519049118474</v>
       </c>
       <c r="E18">
-        <v>1.042525682874575</v>
+        <v>1.013064176265097</v>
       </c>
       <c r="F18">
-        <v>1.050220195373043</v>
+        <v>1.014098948128763</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038868428222873</v>
+        <v>1.045940962563179</v>
       </c>
       <c r="J18">
-        <v>1.040781320214502</v>
+        <v>1.027094903367567</v>
       </c>
       <c r="K18">
-        <v>1.040821009249829</v>
+        <v>1.03202559695725</v>
       </c>
       <c r="L18">
-        <v>1.045827330184911</v>
+        <v>1.02666115197084</v>
       </c>
       <c r="M18">
-        <v>1.053495954506313</v>
+        <v>1.027678673656863</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034738215553882</v>
+        <v>1.000386382932147</v>
       </c>
       <c r="D19">
-        <v>1.037552579778686</v>
+        <v>1.018772083966751</v>
       </c>
       <c r="E19">
-        <v>1.042588984643961</v>
+        <v>1.013366715949104</v>
       </c>
       <c r="F19">
-        <v>1.050295935821921</v>
+        <v>1.014454898485163</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038886215802909</v>
+        <v>1.046060194721469</v>
       </c>
       <c r="J19">
-        <v>1.040822315172506</v>
+        <v>1.027300259208329</v>
       </c>
       <c r="K19">
-        <v>1.040856902142757</v>
+        <v>1.032211617903053</v>
       </c>
       <c r="L19">
-        <v>1.045876214131201</v>
+        <v>1.026895315469032</v>
       </c>
       <c r="M19">
-        <v>1.053557357345558</v>
+        <v>1.027965469541475</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034432279358409</v>
+        <v>0.9988014462127208</v>
       </c>
       <c r="D20">
-        <v>1.037327436642795</v>
+        <v>1.017637008835778</v>
       </c>
       <c r="E20">
-        <v>1.042305949987785</v>
+        <v>1.012009789931399</v>
       </c>
       <c r="F20">
-        <v>1.049957299634496</v>
+        <v>1.012858431694336</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038806572071416</v>
+        <v>1.045524434895768</v>
       </c>
       <c r="J20">
-        <v>1.04063895856261</v>
+        <v>1.026378648409493</v>
       </c>
       <c r="K20">
-        <v>1.040696346289629</v>
+        <v>1.03137666360265</v>
       </c>
       <c r="L20">
-        <v>1.045657607388401</v>
+        <v>1.02584469850204</v>
       </c>
       <c r="M20">
-        <v>1.053282793157513</v>
+        <v>1.026678887513313</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033438251453894</v>
+        <v>0.9935549206573998</v>
       </c>
       <c r="D21">
-        <v>1.036595842353146</v>
+        <v>1.013884761396827</v>
       </c>
       <c r="E21">
-        <v>1.041386937666245</v>
+        <v>1.007527937721735</v>
       </c>
       <c r="F21">
-        <v>1.048857998305008</v>
+        <v>1.007585496899706</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03854600407812</v>
+        <v>1.043737390514571</v>
       </c>
       <c r="J21">
-        <v>1.040042545519859</v>
+        <v>1.023324601544177</v>
       </c>
       <c r="K21">
-        <v>1.040173764399655</v>
+        <v>1.028607772388598</v>
       </c>
       <c r="L21">
-        <v>1.044947142439367</v>
+        <v>1.022368080876835</v>
       </c>
       <c r="M21">
-        <v>1.052390932246224</v>
+        <v>1.022424570808782</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032813733190112</v>
+        <v>0.9901810015014569</v>
       </c>
       <c r="D22">
-        <v>1.036136149840036</v>
+        <v>1.011476086522468</v>
       </c>
       <c r="E22">
-        <v>1.040810015690758</v>
+        <v>1.00465365009156</v>
       </c>
       <c r="F22">
-        <v>1.048168087007256</v>
+        <v>1.004203816436776</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038380922127256</v>
+        <v>1.042577993427232</v>
       </c>
       <c r="J22">
-        <v>1.039667330242527</v>
+        <v>1.021358292816703</v>
       </c>
       <c r="K22">
-        <v>1.039844742583084</v>
+        <v>1.026823577238503</v>
       </c>
       <c r="L22">
-        <v>1.044500640210579</v>
+        <v>1.020133477557679</v>
       </c>
       <c r="M22">
-        <v>1.051830783950876</v>
+        <v>1.019692452379856</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033144757498677</v>
+        <v>0.9919769349952487</v>
       </c>
       <c r="D23">
-        <v>1.036379813551689</v>
+        <v>1.012757792274348</v>
       </c>
       <c r="E23">
-        <v>1.04111576736033</v>
+        <v>1.00618287059185</v>
       </c>
       <c r="F23">
-        <v>1.048533701808992</v>
+        <v>1.006003002266993</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038468553694209</v>
+        <v>1.04319608222683</v>
       </c>
       <c r="J23">
-        <v>1.039866260094643</v>
+        <v>1.022405161320026</v>
       </c>
       <c r="K23">
-        <v>1.040019205935007</v>
+        <v>1.027773622864085</v>
       </c>
       <c r="L23">
-        <v>1.044737320579428</v>
+        <v>1.021322833663082</v>
       </c>
       <c r="M23">
-        <v>1.052127671833457</v>
+        <v>1.02114639102316</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034448952184954</v>
+        <v>0.9988881785738527</v>
       </c>
       <c r="D24">
-        <v>1.037339706718344</v>
+        <v>1.01769910522494</v>
       </c>
       <c r="E24">
-        <v>1.042321372454288</v>
+        <v>1.012084008605948</v>
       </c>
       <c r="F24">
-        <v>1.049975750867528</v>
+        <v>1.012945751590366</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03881091924665</v>
+        <v>1.04555380433571</v>
       </c>
       <c r="J24">
-        <v>1.040648953584172</v>
+        <v>1.026429094427211</v>
       </c>
       <c r="K24">
-        <v>1.040705099671844</v>
+        <v>1.031422373963455</v>
       </c>
       <c r="L24">
-        <v>1.045669521649638</v>
+        <v>1.025902187466183</v>
       </c>
       <c r="M24">
-        <v>1.053297755397285</v>
+        <v>1.026749276452989</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035964387020788</v>
+        <v>1.006602131483916</v>
       </c>
       <c r="D25">
-        <v>1.038454819786583</v>
+        <v>1.023230185881208</v>
       </c>
       <c r="E25">
-        <v>1.043724267111976</v>
+        <v>1.018702024323141</v>
       </c>
       <c r="F25">
-        <v>1.051654617580936</v>
+        <v>1.020732542488096</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039202739219382</v>
+        <v>1.048141095404789</v>
       </c>
       <c r="J25">
-        <v>1.041556202679001</v>
+        <v>1.030909332229255</v>
       </c>
       <c r="K25">
-        <v>1.041499029033674</v>
+        <v>1.035478276920649</v>
       </c>
       <c r="L25">
-        <v>1.046752099165962</v>
+        <v>1.03101679037224</v>
       </c>
       <c r="M25">
-        <v>1.054658139976882</v>
+        <v>1.033017317214109</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
